--- a/team/efforts/Recopilacion_Esfuerzos_Equipo.xlsx
+++ b/team/efforts/Recopilacion_Esfuerzos_Equipo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="12"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ene" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>GP</t>
   </si>
@@ -587,12 +587,30 @@
   <si>
     <t>Reunion con el profesor: auditoria externa</t>
   </si>
+  <si>
+    <t>Reunion para preparar la presentacion</t>
+  </si>
+  <si>
+    <t>Ahora se pueden introducir modelos a traves de la aplicación</t>
+  </si>
+  <si>
+    <t>Introducidos varios modelos</t>
+  </si>
+  <si>
+    <t>Funcionalidad: Ordenar lista de coches por modelo</t>
+  </si>
+  <si>
+    <t>Ordenacion de modelos mediante todos los campos de un modelo(ascendente y descendente)</t>
+  </si>
+  <si>
+    <t>Reunion para preparar la presentacion tecnica y reparto de tareas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -676,6 +694,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1553,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1723,10 +1747,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1755,31 +1775,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -1820,134 +1832,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -1962,6 +1848,34 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2212,6 +2126,34 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor indexed="41"/>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
         </patternFill>
@@ -2228,6 +2170,118 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF99CCFF"/>
           <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF99CCFF"/>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="41"/>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="41"/>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="41"/>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="44"/>
         </patternFill>
       </fill>
       <border>
@@ -2660,482 +2714,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFCCFFFF"/>
           <bgColor rgb="FFCCFFFF"/>
         </patternFill>
@@ -3208,398 +2786,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF99CCFF"/>
           <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFCCFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF99CCFF"/>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="41"/>
-          <bgColor indexed="27"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="31"/>
-          <bgColor indexed="44"/>
         </patternFill>
       </fill>
       <border>
@@ -3799,7 +2985,7 @@
                   <c:v>46.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3897,11 +3083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110899968"/>
-        <c:axId val="110901888"/>
+        <c:axId val="63658624"/>
+        <c:axId val="63668992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110899968"/>
+        <c:axId val="63658624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3943,7 +3129,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110901888"/>
+        <c:crossAx val="63668992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3951,7 +3137,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110901888"/>
+        <c:axId val="63668992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +3194,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110899968"/>
+        <c:crossAx val="63658624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4085,6 +3271,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4118,6 +3352,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -4181,6 +3463,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4214,6 +3544,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -4302,6 +3680,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4335,6 +3761,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -4398,6 +3872,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4431,6 +3953,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -4494,6 +4064,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4527,6 +4145,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -4590,6 +4256,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4623,6 +4337,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -4989,8 +4751,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -7598,12 +7360,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="136" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7675,8 +7437,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -10432,12 +10194,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10508,8 +10270,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="132"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="156"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
@@ -13217,12 +12979,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="84" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13294,8 +13056,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -16051,12 +15813,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16070,7 +15832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16279,7 +16041,7 @@
       </c>
       <c r="G6" s="60">
         <f t="shared" ref="G6:G7" si="0">SUM(H6:S6)</f>
-        <v>123.65</v>
+        <v>131.15</v>
       </c>
       <c r="H6" s="83">
         <f>Ene!G36</f>
@@ -16299,7 +16061,7 @@
       </c>
       <c r="L6" s="83">
         <f>May!G36</f>
-        <v>8</v>
+        <v>15.5</v>
       </c>
       <c r="M6" s="83">
         <f>Jun!G36</f>
@@ -17406,12 +17168,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17481,8 +17243,8 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="132"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="156"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
@@ -17900,55 +17662,55 @@
     </row>
     <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="133">
+      <c r="B7" s="131">
         <v>84</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="132">
         <v>2</v>
       </c>
-      <c r="D7" s="134">
+      <c r="D7" s="132">
         <v>42</v>
       </c>
-      <c r="E7" s="135">
-        <v>0</v>
-      </c>
-      <c r="F7" s="136" t="s">
+      <c r="E7" s="133">
+        <v>0</v>
+      </c>
+      <c r="F7" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="135">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="139"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="139"/>
-      <c r="X7" s="139"/>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="139"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138">
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="137"/>
+      <c r="Z7" s="137"/>
+      <c r="AA7" s="137"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136">
         <v>0.5</v>
       </c>
-      <c r="AD7" s="139"/>
-      <c r="AE7" s="139"/>
-      <c r="AF7" s="139"/>
-      <c r="AG7" s="139"/>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="138"/>
+      <c r="AD7" s="137"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="137"/>
+      <c r="AH7" s="137"/>
+      <c r="AI7" s="136"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
@@ -17969,22 +17731,22 @@
     </row>
     <row r="8" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="133">
+      <c r="B8" s="131">
         <v>84</v>
       </c>
-      <c r="C8" s="140">
+      <c r="C8" s="138">
         <v>2</v>
       </c>
-      <c r="D8" s="140">
+      <c r="D8" s="138">
         <v>41</v>
       </c>
-      <c r="E8" s="141">
-        <v>0</v>
-      </c>
-      <c r="F8" s="142" t="s">
+      <c r="E8" s="139">
+        <v>0</v>
+      </c>
+      <c r="F8" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="135">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -18003,15 +17765,15 @@
       <c r="T8" s="81"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="144">
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="142">
         <v>1</v>
       </c>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
       <c r="AD8" s="81"/>
       <c r="AE8" s="81"/>
       <c r="AF8" s="81"/>
@@ -18038,22 +17800,22 @@
     </row>
     <row r="9" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="133">
+      <c r="B9" s="131">
         <v>84</v>
       </c>
-      <c r="C9" s="140">
+      <c r="C9" s="138">
         <v>2</v>
       </c>
-      <c r="D9" s="140">
+      <c r="D9" s="138">
         <v>41</v>
       </c>
-      <c r="E9" s="141">
-        <v>0</v>
-      </c>
-      <c r="F9" s="142" t="s">
+      <c r="E9" s="139">
+        <v>0</v>
+      </c>
+      <c r="F9" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="135">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -18072,13 +17834,13 @@
       <c r="T9" s="81"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="143"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145">
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="143"/>
+      <c r="AC9" s="143">
         <v>5</v>
       </c>
       <c r="AD9" s="81"/>
@@ -18113,7 +17875,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
       <c r="G10" s="16">
-        <f t="shared" ref="G3:G36" si="1">SUM(H10:AI10)</f>
+        <f t="shared" ref="G10:G36" si="1">SUM(H10:AI10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="26"/>
@@ -20126,22 +19888,22 @@
     <mergeCell ref="AO1:AP1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G6 G10:G35">
-    <cfRule type="cellIs" dxfId="135" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G6 G10:G35">
-    <cfRule type="cellIs" dxfId="134" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="cellIs" dxfId="133" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G9">
-    <cfRule type="cellIs" dxfId="132" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20215,8 +19977,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -20885,7 +20647,7 @@
         <v>51</v>
       </c>
       <c r="G10" s="46">
-        <f>SUM(H10:AL10)</f>
+        <f t="shared" ref="G10:G24" si="1">SUM(H10:AL10)</f>
         <v>0.5</v>
       </c>
       <c r="H10" s="26"/>
@@ -20957,7 +20719,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="46">
-        <f>SUM(H11:AL11)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H11" s="26"/>
@@ -21029,7 +20791,7 @@
         <v>53</v>
       </c>
       <c r="G12" s="46">
-        <f>SUM(H12:AL12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H12" s="26"/>
@@ -21101,7 +20863,7 @@
         <v>54</v>
       </c>
       <c r="G13" s="46">
-        <f>SUM(H13:AL13)</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="H13" s="26"/>
@@ -21160,34 +20922,34 @@
       <c r="B14" s="43">
         <v>84</v>
       </c>
-      <c r="C14" s="153">
+      <c r="C14" s="151">
         <v>2</v>
       </c>
-      <c r="D14" s="153">
+      <c r="D14" s="151">
         <v>43</v>
       </c>
-      <c r="E14" s="154">
-        <v>0</v>
-      </c>
-      <c r="F14" s="150" t="s">
+      <c r="E14" s="152">
+        <v>0</v>
+      </c>
+      <c r="F14" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="151">
-        <f>SUM(H14:AL14)</f>
+      <c r="G14" s="149">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H14" s="145"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
-      <c r="R14" s="153"/>
-      <c r="S14" s="153">
+      <c r="H14" s="143"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151">
         <v>1.5</v>
       </c>
       <c r="T14" s="23"/>
@@ -21232,20 +20994,20 @@
       <c r="B15" s="43">
         <v>84</v>
       </c>
-      <c r="C15" s="153">
+      <c r="C15" s="151">
         <v>2</v>
       </c>
       <c r="D15" s="23">
         <v>54</v>
       </c>
-      <c r="E15" s="154">
+      <c r="E15" s="152">
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="46">
-        <f>SUM(H15:AL15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H15" s="26"/>
@@ -21304,20 +21066,20 @@
       <c r="B16" s="43">
         <v>84</v>
       </c>
-      <c r="C16" s="153">
+      <c r="C16" s="151">
         <v>2</v>
       </c>
       <c r="D16" s="23">
         <v>54</v>
       </c>
-      <c r="E16" s="154">
+      <c r="E16" s="152">
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="46">
-        <f>SUM(H16:AL16)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="H16" s="26"/>
@@ -21376,20 +21138,20 @@
       <c r="B17" s="43">
         <v>84</v>
       </c>
-      <c r="C17" s="153">
+      <c r="C17" s="151">
         <v>2</v>
       </c>
       <c r="D17" s="23">
         <v>57</v>
       </c>
-      <c r="E17" s="154">
+      <c r="E17" s="152">
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="46">
-        <f>SUM(H17:AL17)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="H17" s="26"/>
@@ -21448,55 +21210,55 @@
       <c r="B18" s="43">
         <v>84</v>
       </c>
-      <c r="C18" s="148">
+      <c r="C18" s="146">
         <v>2</v>
       </c>
-      <c r="D18" s="148">
+      <c r="D18" s="146">
         <v>42</v>
       </c>
-      <c r="E18" s="149">
-        <v>0</v>
-      </c>
-      <c r="F18" s="150" t="s">
+      <c r="E18" s="147">
+        <v>0</v>
+      </c>
+      <c r="F18" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="151">
-        <f>SUM(H18:AL18)</f>
+      <c r="G18" s="149">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146">
+      <c r="H18" s="144"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144">
         <v>0.5</v>
       </c>
-      <c r="O18" s="146"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="146"/>
-      <c r="AL18" s="146"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146"/>
+      <c r="U18" s="144"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="146"/>
+      <c r="Y18" s="146"/>
+      <c r="Z18" s="146"/>
+      <c r="AA18" s="144"/>
+      <c r="AB18" s="144"/>
+      <c r="AC18" s="144"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="144"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="144"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -21520,55 +21282,55 @@
       <c r="B19" s="43">
         <v>84</v>
       </c>
-      <c r="C19" s="148">
+      <c r="C19" s="146">
         <v>2</v>
       </c>
-      <c r="D19" s="148">
+      <c r="D19" s="146">
         <v>42</v>
       </c>
-      <c r="E19" s="149">
-        <v>0</v>
-      </c>
-      <c r="F19" s="150" t="s">
+      <c r="E19" s="147">
+        <v>0</v>
+      </c>
+      <c r="F19" s="148" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="151">
-        <f>SUM(H19:AL19)</f>
+      <c r="G19" s="149">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H19" s="146"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146">
+      <c r="H19" s="144"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144">
         <v>0.5</v>
       </c>
-      <c r="O19" s="146"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="146"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="146"/>
-      <c r="AB19" s="146"/>
-      <c r="AC19" s="146"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="148"/>
-      <c r="AH19" s="146"/>
-      <c r="AI19" s="146"/>
-      <c r="AJ19" s="146"/>
-      <c r="AK19" s="146"/>
-      <c r="AL19" s="146"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="146"/>
+      <c r="T19" s="146"/>
+      <c r="U19" s="144"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="146"/>
+      <c r="X19" s="146"/>
+      <c r="Y19" s="146"/>
+      <c r="Z19" s="146"/>
+      <c r="AA19" s="144"/>
+      <c r="AB19" s="144"/>
+      <c r="AC19" s="144"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="146"/>
+      <c r="AF19" s="146"/>
+      <c r="AG19" s="146"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="144"/>
+      <c r="AK19" s="144"/>
+      <c r="AL19" s="144"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -21592,55 +21354,55 @@
       <c r="B20" s="43">
         <v>84</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="151">
         <v>2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="151">
         <v>43</v>
       </c>
-      <c r="E20" s="154">
-        <v>0</v>
-      </c>
-      <c r="F20" s="150" t="s">
+      <c r="E20" s="152">
+        <v>0</v>
+      </c>
+      <c r="F20" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="151">
-        <f>SUM(H20:AL20)</f>
+      <c r="G20" s="149">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H20" s="145"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="153"/>
-      <c r="Q20" s="153"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="153"/>
-      <c r="U20" s="145">
+      <c r="H20" s="143"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="143">
         <v>0.5</v>
       </c>
-      <c r="V20" s="145"/>
-      <c r="W20" s="153"/>
-      <c r="X20" s="153"/>
-      <c r="Y20" s="153"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="153"/>
-      <c r="AE20" s="153"/>
-      <c r="AF20" s="153"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="145"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="143"/>
+      <c r="AJ20" s="143"/>
+      <c r="AK20" s="143"/>
+      <c r="AL20" s="143"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -21664,55 +21426,55 @@
       <c r="B21" s="43">
         <v>84</v>
       </c>
-      <c r="C21" s="153">
+      <c r="C21" s="151">
         <v>2</v>
       </c>
-      <c r="D21" s="153">
+      <c r="D21" s="151">
         <v>52</v>
       </c>
-      <c r="E21" s="154">
-        <v>0</v>
-      </c>
-      <c r="F21" s="150" t="s">
+      <c r="E21" s="152">
+        <v>0</v>
+      </c>
+      <c r="F21" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="151">
-        <f>SUM(H21:AL21)</f>
+      <c r="G21" s="149">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H21" s="145"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145">
+      <c r="H21" s="143"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="143"/>
+      <c r="AB21" s="143">
         <v>0.5</v>
       </c>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="153"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="145"/>
+      <c r="AC21" s="143"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="143"/>
+      <c r="AJ21" s="143"/>
+      <c r="AK21" s="143"/>
+      <c r="AL21" s="143"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -21736,55 +21498,55 @@
       <c r="B22" s="43">
         <v>84</v>
       </c>
-      <c r="C22" s="153">
+      <c r="C22" s="151">
         <v>2</v>
       </c>
-      <c r="D22" s="153">
+      <c r="D22" s="151">
         <v>52</v>
       </c>
-      <c r="E22" s="154">
-        <v>0</v>
-      </c>
-      <c r="F22" s="150" t="s">
+      <c r="E22" s="152">
+        <v>0</v>
+      </c>
+      <c r="F22" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="151">
-        <f>SUM(H22:AL22)</f>
+      <c r="G22" s="149">
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="H22" s="145"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="153"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="145">
+      <c r="H22" s="143"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="143"/>
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="143"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="143"/>
+      <c r="AI22" s="143">
         <v>0.75</v>
       </c>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="145"/>
+      <c r="AJ22" s="143"/>
+      <c r="AK22" s="143"/>
+      <c r="AL22" s="143"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -21808,55 +21570,55 @@
       <c r="B23" s="43">
         <v>84</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="151">
         <v>2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="151">
         <v>54</v>
       </c>
-      <c r="E23" s="154">
-        <v>0</v>
-      </c>
-      <c r="F23" s="150" t="s">
+      <c r="E23" s="152">
+        <v>0</v>
+      </c>
+      <c r="F23" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="151">
-        <f>SUM(H23:AL23)</f>
+      <c r="G23" s="149">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="H23" s="145"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="153"/>
-      <c r="T23" s="153"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="153"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="145">
+      <c r="H23" s="143"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="143"/>
+      <c r="AB23" s="143"/>
+      <c r="AC23" s="143"/>
+      <c r="AD23" s="151"/>
+      <c r="AE23" s="151"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="143"/>
+      <c r="AI23" s="143"/>
+      <c r="AJ23" s="143">
         <v>1.5</v>
       </c>
-      <c r="AK23" s="145"/>
-      <c r="AL23" s="145"/>
+      <c r="AK23" s="143"/>
+      <c r="AL23" s="143"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -21880,55 +21642,55 @@
       <c r="B24" s="43">
         <v>84</v>
       </c>
-      <c r="C24" s="153">
+      <c r="C24" s="151">
         <v>2</v>
       </c>
-      <c r="D24" s="153">
+      <c r="D24" s="151">
         <v>54</v>
       </c>
-      <c r="E24" s="154">
-        <v>0</v>
-      </c>
-      <c r="F24" s="150" t="s">
+      <c r="E24" s="152">
+        <v>0</v>
+      </c>
+      <c r="F24" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="151">
-        <f>SUM(H24:AL24)</f>
+      <c r="G24" s="149">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H24" s="145"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="153"/>
-      <c r="T24" s="153"/>
-      <c r="U24" s="145"/>
-      <c r="V24" s="145"/>
-      <c r="W24" s="153"/>
-      <c r="X24" s="153"/>
-      <c r="Y24" s="153"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="145"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="153"/>
-      <c r="AE24" s="153"/>
-      <c r="AF24" s="153"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="145">
+      <c r="H24" s="143"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="143"/>
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="143"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="143"/>
+      <c r="AI24" s="143"/>
+      <c r="AJ24" s="143"/>
+      <c r="AK24" s="143">
         <v>1</v>
       </c>
-      <c r="AL24" s="145"/>
+      <c r="AL24" s="143"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -21949,43 +21711,43 @@
     </row>
     <row r="25" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="145"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="145"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="153"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="153"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="145"/>
-      <c r="AJ25" s="145"/>
-      <c r="AK25" s="145"/>
-      <c r="AL25" s="145"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="143"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="151"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="143"/>
+      <c r="AB25" s="143"/>
+      <c r="AC25" s="143"/>
+      <c r="AD25" s="151"/>
+      <c r="AE25" s="151"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="143"/>
+      <c r="AI25" s="143"/>
+      <c r="AJ25" s="143"/>
+      <c r="AK25" s="143"/>
+      <c r="AL25" s="143"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -22006,43 +21768,43 @@
     </row>
     <row r="26" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="153"/>
-      <c r="Z26" s="153"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="145"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="153"/>
-      <c r="AE26" s="153"/>
-      <c r="AF26" s="153"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="145"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="143"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="151"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="143"/>
+      <c r="AI26" s="143"/>
+      <c r="AJ26" s="143"/>
+      <c r="AK26" s="143"/>
+      <c r="AL26" s="143"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -22063,43 +21825,43 @@
     </row>
     <row r="27" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="153"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="153"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="145"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143"/>
+      <c r="AC27" s="143"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="143"/>
+      <c r="AJ27" s="143"/>
+      <c r="AK27" s="143"/>
+      <c r="AL27" s="143"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -22120,43 +21882,43 @@
     </row>
     <row r="28" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="153"/>
-      <c r="Z28" s="153"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="153"/>
-      <c r="AE28" s="153"/>
-      <c r="AF28" s="153"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="145"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="143"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="143"/>
+      <c r="AB28" s="143"/>
+      <c r="AC28" s="143"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="143"/>
+      <c r="AI28" s="143"/>
+      <c r="AJ28" s="143"/>
+      <c r="AK28" s="143"/>
+      <c r="AL28" s="143"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -22177,43 +21939,43 @@
     </row>
     <row r="29" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="153"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="153"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="145"/>
-      <c r="AL29" s="145"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="143"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="143"/>
+      <c r="AB29" s="143"/>
+      <c r="AC29" s="143"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="143"/>
+      <c r="AI29" s="143"/>
+      <c r="AJ29" s="143"/>
+      <c r="AK29" s="143"/>
+      <c r="AL29" s="143"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -22234,43 +21996,43 @@
     </row>
     <row r="30" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="153"/>
-      <c r="S30" s="153"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="153"/>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="153"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="145"/>
-      <c r="AL30" s="145"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="143"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="143"/>
+      <c r="AB30" s="143"/>
+      <c r="AC30" s="143"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="143"/>
+      <c r="AJ30" s="143"/>
+      <c r="AK30" s="143"/>
+      <c r="AL30" s="143"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -22291,43 +22053,43 @@
     </row>
     <row r="31" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="153"/>
-      <c r="S31" s="153"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="153"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="153"/>
-      <c r="AF31" s="153"/>
-      <c r="AG31" s="153"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="145"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="143"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="143"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="143"/>
+      <c r="AJ31" s="143"/>
+      <c r="AK31" s="143"/>
+      <c r="AL31" s="143"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -22348,43 +22110,43 @@
     </row>
     <row r="32" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="153"/>
-      <c r="Q32" s="153"/>
-      <c r="R32" s="153"/>
-      <c r="S32" s="153"/>
-      <c r="T32" s="153"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="153"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="153"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="153"/>
-      <c r="AF32" s="153"/>
-      <c r="AG32" s="153"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="145"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="151"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="143"/>
+      <c r="AL32" s="143"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -22405,43 +22167,43 @@
     </row>
     <row r="33" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="153"/>
-      <c r="Q33" s="153"/>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="153"/>
-      <c r="X33" s="153"/>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="153"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="153"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="145"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="143"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="151"/>
+      <c r="AE33" s="151"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="143"/>
+      <c r="AL33" s="143"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -22462,43 +22224,43 @@
     </row>
     <row r="34" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="153"/>
-      <c r="S34" s="153"/>
-      <c r="T34" s="153"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="153"/>
-      <c r="X34" s="153"/>
-      <c r="Y34" s="153"/>
-      <c r="Z34" s="153"/>
-      <c r="AA34" s="145"/>
-      <c r="AB34" s="145"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="153"/>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="153"/>
-      <c r="AG34" s="153"/>
-      <c r="AH34" s="145"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="145"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="151"/>
+      <c r="S34" s="151"/>
+      <c r="T34" s="151"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="143"/>
+      <c r="W34" s="151"/>
+      <c r="X34" s="151"/>
+      <c r="Y34" s="151"/>
+      <c r="Z34" s="151"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="151"/>
+      <c r="AE34" s="151"/>
+      <c r="AF34" s="151"/>
+      <c r="AG34" s="151"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="143"/>
+      <c r="AL34" s="143"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -22591,127 +22353,127 @@
         <v>42.15</v>
       </c>
       <c r="H36" s="78">
-        <f t="shared" ref="H36:AL36" si="1">SUM(H3:H35)</f>
+        <f t="shared" ref="H36:AL36" si="2">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.65</v>
       </c>
       <c r="Q36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="T36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.75</v>
       </c>
       <c r="V36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="AA36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AC36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AE36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG36" s="79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AI36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
       <c r="AJ36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="AK36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AL36" s="78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AM36" s="1"/>
@@ -23149,64 +22911,64 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G10 G35">
-    <cfRule type="cellIs" dxfId="127" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G10 G35">
-    <cfRule type="cellIs" dxfId="126" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G13">
-    <cfRule type="cellIs" dxfId="79" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G13">
-    <cfRule type="cellIs" dxfId="78" priority="24" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G34">
-    <cfRule type="cellIs" dxfId="119" priority="17" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="17" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="18" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G17">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G17">
-    <cfRule type="cellIs" dxfId="73" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="71" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="8" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="8" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="67" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23287,8 +23049,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="132"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="156"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
@@ -23992,16 +23754,16 @@
     </row>
     <row r="11" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="152">
+      <c r="B11" s="150">
         <v>85</v>
       </c>
-      <c r="C11" s="153">
+      <c r="C11" s="151">
         <v>2</v>
       </c>
       <c r="D11" s="23">
         <v>57</v>
       </c>
-      <c r="E11" s="154">
+      <c r="E11" s="152">
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
@@ -24063,16 +23825,16 @@
     </row>
     <row r="12" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="152">
+      <c r="B12" s="150">
         <v>85</v>
       </c>
-      <c r="C12" s="153">
+      <c r="C12" s="151">
         <v>2</v>
       </c>
       <c r="D12" s="23">
         <v>54</v>
       </c>
-      <c r="E12" s="154">
+      <c r="E12" s="152">
         <v>1</v>
       </c>
       <c r="F12" s="25" t="s">
@@ -24134,16 +23896,16 @@
     </row>
     <row r="13" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="152">
+      <c r="B13" s="150">
         <v>85</v>
       </c>
-      <c r="C13" s="153">
+      <c r="C13" s="151">
         <v>2</v>
       </c>
       <c r="D13" s="23">
         <v>54</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -24205,16 +23967,16 @@
     </row>
     <row r="14" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="152">
+      <c r="B14" s="150">
         <v>85</v>
       </c>
-      <c r="C14" s="153">
+      <c r="C14" s="151">
         <v>2</v>
       </c>
       <c r="D14" s="23">
         <v>57</v>
       </c>
-      <c r="E14" s="154">
+      <c r="E14" s="152">
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
@@ -24276,16 +24038,16 @@
     </row>
     <row r="15" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="152">
+      <c r="B15" s="150">
         <v>85</v>
       </c>
-      <c r="C15" s="153">
+      <c r="C15" s="151">
         <v>2</v>
       </c>
       <c r="D15" s="23">
         <v>54</v>
       </c>
-      <c r="E15" s="154">
+      <c r="E15" s="152">
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -24347,10 +24109,10 @@
     </row>
     <row r="16" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="152">
+      <c r="B16" s="150">
         <v>85</v>
       </c>
-      <c r="C16" s="153">
+      <c r="C16" s="151">
         <v>2</v>
       </c>
       <c r="D16" s="23">
@@ -24418,10 +24180,10 @@
     </row>
     <row r="17" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="152">
+      <c r="B17" s="150">
         <v>85</v>
       </c>
-      <c r="C17" s="153">
+      <c r="C17" s="151">
         <v>2</v>
       </c>
       <c r="D17" s="23">
@@ -24986,57 +24748,57 @@
     </row>
     <row r="25" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="152">
+      <c r="B25" s="150">
         <v>84</v>
       </c>
-      <c r="C25" s="153">
+      <c r="C25" s="151">
         <v>2</v>
       </c>
-      <c r="D25" s="153">
+      <c r="D25" s="151">
         <v>54</v>
       </c>
-      <c r="E25" s="154">
-        <v>0</v>
-      </c>
-      <c r="F25" s="155" t="s">
+      <c r="E25" s="152">
+        <v>0</v>
+      </c>
+      <c r="F25" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="151">
+      <c r="G25" s="149">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="153"/>
-      <c r="Q25" s="153"/>
-      <c r="R25" s="145">
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="143">
         <v>0.5</v>
       </c>
-      <c r="S25" s="145"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="145"/>
-      <c r="Z25" s="145"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="153"/>
-      <c r="AC25" s="153"/>
-      <c r="AD25" s="145"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="153"/>
-      <c r="AJ25" s="153"/>
-      <c r="AK25" s="153"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="151"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="143"/>
+      <c r="Z25" s="143"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="143"/>
+      <c r="AE25" s="143"/>
+      <c r="AF25" s="143"/>
+      <c r="AG25" s="143"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="151"/>
+      <c r="AJ25" s="151"/>
+      <c r="AK25" s="151"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -25057,57 +24819,57 @@
     </row>
     <row r="26" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="152">
+      <c r="B26" s="150">
         <v>84</v>
       </c>
-      <c r="C26" s="153">
+      <c r="C26" s="151">
         <v>2</v>
       </c>
-      <c r="D26" s="153">
+      <c r="D26" s="151">
         <v>54</v>
       </c>
-      <c r="E26" s="154">
-        <v>0</v>
-      </c>
-      <c r="F26" s="155" t="s">
+      <c r="E26" s="152">
+        <v>0</v>
+      </c>
+      <c r="F26" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="149">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="145">
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143">
         <v>3</v>
       </c>
-      <c r="T26" s="153"/>
-      <c r="U26" s="153"/>
-      <c r="V26" s="153"/>
-      <c r="W26" s="153"/>
-      <c r="X26" s="153"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="145"/>
-      <c r="AA26" s="153"/>
-      <c r="AB26" s="153"/>
-      <c r="AC26" s="153"/>
-      <c r="AD26" s="145"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="153"/>
-      <c r="AI26" s="153"/>
-      <c r="AJ26" s="153"/>
-      <c r="AK26" s="153"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="151"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="151"/>
+      <c r="AK26" s="151"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -25128,57 +24890,57 @@
     </row>
     <row r="27" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="152">
+      <c r="B27" s="150">
         <v>84</v>
       </c>
-      <c r="C27" s="153">
+      <c r="C27" s="151">
         <v>2</v>
       </c>
-      <c r="D27" s="153">
+      <c r="D27" s="151">
         <v>54</v>
       </c>
-      <c r="E27" s="154">
-        <v>0</v>
-      </c>
-      <c r="F27" s="155" t="s">
+      <c r="E27" s="152">
+        <v>0</v>
+      </c>
+      <c r="F27" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="149">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="153"/>
-      <c r="U27" s="153"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="156">
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="154">
         <v>3.5</v>
       </c>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="153"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="153"/>
-      <c r="AK27" s="153"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="143"/>
+      <c r="AE27" s="143"/>
+      <c r="AF27" s="143"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -25199,57 +24961,57 @@
     </row>
     <row r="28" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="152">
+      <c r="B28" s="150">
         <v>84</v>
       </c>
-      <c r="C28" s="153">
+      <c r="C28" s="151">
         <v>2</v>
       </c>
-      <c r="D28" s="153">
+      <c r="D28" s="151">
         <v>54</v>
       </c>
-      <c r="E28" s="154">
-        <v>0</v>
-      </c>
-      <c r="F28" s="155" t="s">
+      <c r="E28" s="152">
+        <v>0</v>
+      </c>
+      <c r="F28" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="151">
+      <c r="G28" s="149">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="153"/>
-      <c r="V28" s="153"/>
-      <c r="W28" s="153"/>
-      <c r="X28" s="153"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="153"/>
-      <c r="AB28" s="153"/>
-      <c r="AC28" s="153"/>
-      <c r="AD28" s="145">
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="143"/>
+      <c r="Z28" s="143"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="143">
         <v>1.25</v>
       </c>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="153"/>
-      <c r="AJ28" s="153"/>
-      <c r="AK28" s="153"/>
+      <c r="AE28" s="143"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
@@ -25270,42 +25032,42 @@
     </row>
     <row r="29" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="153"/>
-      <c r="U29" s="153"/>
-      <c r="V29" s="153"/>
-      <c r="W29" s="153"/>
-      <c r="X29" s="153"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="153"/>
-      <c r="AI29" s="153"/>
-      <c r="AJ29" s="153"/>
-      <c r="AK29" s="153"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="143"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="143"/>
+      <c r="Z29" s="143"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="143"/>
+      <c r="AE29" s="143"/>
+      <c r="AF29" s="143"/>
+      <c r="AG29" s="143"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="151"/>
+      <c r="AK29" s="151"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
@@ -25326,42 +25088,42 @@
     </row>
     <row r="30" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="152"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="153"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="153"/>
-      <c r="U30" s="153"/>
-      <c r="V30" s="153"/>
-      <c r="W30" s="153"/>
-      <c r="X30" s="153"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="153"/>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="153"/>
-      <c r="AI30" s="153"/>
-      <c r="AJ30" s="153"/>
-      <c r="AK30" s="153"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="143"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="143"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="151"/>
+      <c r="AK30" s="151"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
@@ -25382,42 +25144,42 @@
     </row>
     <row r="31" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="153"/>
-      <c r="Q31" s="153"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="153"/>
-      <c r="U31" s="153"/>
-      <c r="V31" s="153"/>
-      <c r="W31" s="153"/>
-      <c r="X31" s="153"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="153"/>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="153"/>
-      <c r="AI31" s="153"/>
-      <c r="AJ31" s="153"/>
-      <c r="AK31" s="153"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="143"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="143"/>
+      <c r="Z31" s="143"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="143"/>
+      <c r="AE31" s="143"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="151"/>
+      <c r="AK31" s="151"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
@@ -26233,136 +25995,136 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G10 G32:G35">
-    <cfRule type="cellIs" dxfId="99" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G10 G32:G35">
-    <cfRule type="cellIs" dxfId="98" priority="50" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G14">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G14">
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G17">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G17">
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G19">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G23">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G23">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G31">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G28">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26376,8 +26138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AL4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26436,8 +26198,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -26600,7 +26362,7 @@
         <v>83</v>
       </c>
       <c r="G3" s="46">
-        <f t="shared" ref="G3:G6" si="0">SUM(H3:AL3)</f>
+        <f t="shared" ref="G3" si="0">SUM(H3:AL3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="26"/>
@@ -26659,13 +26421,13 @@
       <c r="B4" s="22">
         <v>84</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="151">
         <v>2</v>
       </c>
       <c r="D4" s="23">
         <v>44</v>
       </c>
-      <c r="E4" s="154">
+      <c r="E4" s="152">
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -26731,7 +26493,7 @@
       <c r="B5" s="22">
         <v>84</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="151">
         <v>2</v>
       </c>
       <c r="D5" s="23">
@@ -26872,58 +26634,58 @@
     </row>
     <row r="7" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="147">
+      <c r="B7" s="145">
         <v>84</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="146">
         <v>2</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="146">
         <v>44</v>
       </c>
-      <c r="E7" s="149">
-        <v>0</v>
-      </c>
-      <c r="F7" s="150" t="s">
+      <c r="E7" s="147">
+        <v>0</v>
+      </c>
+      <c r="F7" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="151">
+      <c r="G7" s="149">
         <f t="shared" ref="G7" si="2">SUM(H7:AL7)</f>
         <v>0.5</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148">
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146">
         <v>0.5</v>
       </c>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="148"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="146"/>
-      <c r="AL7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="146"/>
+      <c r="V7" s="146"/>
+      <c r="W7" s="144"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="146"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="146"/>
+      <c r="AJ7" s="146"/>
+      <c r="AK7" s="144"/>
+      <c r="AL7" s="144"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -26944,14 +26706,24 @@
     </row>
     <row r="8" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="16">
-        <f t="shared" ref="G3:G36" si="3">SUM(H8:AL8)</f>
-        <v>0</v>
+      <c r="B8" s="22">
+        <v>84</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>58</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="46">
+        <f t="shared" ref="G8:G13" si="3">SUM(H8:AL8)</f>
+        <v>1</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -26966,7 +26738,9 @@
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
+      <c r="U8" s="23">
+        <v>1</v>
+      </c>
       <c r="V8" s="23"/>
       <c r="W8" s="26"/>
       <c r="X8" s="26"/>
@@ -27004,14 +26778,24 @@
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="16">
+      <c r="B9" s="22">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <v>55</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -27026,7 +26810,9 @@
       <c r="R9" s="23"/>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
+      <c r="U9" s="23">
+        <v>1.5</v>
+      </c>
       <c r="V9" s="23"/>
       <c r="W9" s="26"/>
       <c r="X9" s="26"/>
@@ -27064,14 +26850,24 @@
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="16">
+      <c r="B10" s="22">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="23">
+        <v>55</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0</v>
+      </c>
+      <c r="F10" s="157" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -27086,8 +26882,10 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158">
+        <v>0.25</v>
+      </c>
       <c r="W10" s="26"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="23"/>
@@ -27124,14 +26922,24 @@
     </row>
     <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="16">
+      <c r="B11" s="22">
+        <v>84</v>
+      </c>
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="23">
+        <v>54</v>
+      </c>
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -27147,7 +26955,9 @@
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="V11" s="23">
+        <v>0.75</v>
+      </c>
       <c r="W11" s="26"/>
       <c r="X11" s="26"/>
       <c r="Y11" s="23"/>
@@ -27184,33 +26994,47 @@
     </row>
     <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B12" s="22">
+        <v>84</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>55</v>
+      </c>
+      <c r="E12" s="24">
+        <v>7</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="46">
+        <f>SUM(H12:AG12)</f>
+        <v>3</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="23"/>
+      <c r="W12" s="23">
+        <v>2</v>
+      </c>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="26">
+        <v>1</v>
+      </c>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
       <c r="AB12" s="23"/>
@@ -27244,14 +27068,24 @@
     </row>
     <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="16">
+      <c r="B13" s="22">
+        <v>84</v>
+      </c>
+      <c r="C13" s="23">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23">
+        <v>58</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -27270,7 +27104,9 @@
       <c r="V13" s="23"/>
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
-      <c r="Y13" s="23"/>
+      <c r="Y13" s="23">
+        <v>1</v>
+      </c>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="23"/>
@@ -27310,7 +27146,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
       <c r="G14" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G8:G36" si="4">SUM(H14:AL14)</f>
         <v>0</v>
       </c>
       <c r="H14" s="26"/>
@@ -27370,7 +27206,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H15" s="26"/>
@@ -27430,7 +27266,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H16" s="26"/>
@@ -27490,7 +27326,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H17" s="26"/>
@@ -27550,7 +27386,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H18" s="26"/>
@@ -27610,7 +27446,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H19" s="26"/>
@@ -27670,7 +27506,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20" s="26"/>
@@ -27730,7 +27566,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H21" s="26"/>
@@ -27790,7 +27626,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="26"/>
@@ -27850,7 +27686,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H23" s="26"/>
@@ -27910,7 +27746,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="25"/>
       <c r="G24" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H24" s="26"/>
@@ -27970,7 +27806,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="25"/>
       <c r="G25" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H25" s="26"/>
@@ -28030,7 +27866,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="25"/>
       <c r="G26" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H26" s="26"/>
@@ -28090,7 +27926,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27" s="26"/>
@@ -28150,7 +27986,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="25"/>
       <c r="G28" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H28" s="26"/>
@@ -28210,7 +28046,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="25"/>
       <c r="G29" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H29" s="26"/>
@@ -28270,7 +28106,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="25"/>
       <c r="G30" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H30" s="26"/>
@@ -28330,7 +28166,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="25"/>
       <c r="G31" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H31" s="26"/>
@@ -28390,7 +28226,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="25"/>
       <c r="G32" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H32" s="26"/>
@@ -28450,7 +28286,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="G33" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H33" s="26"/>
@@ -28510,7 +28346,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="25"/>
       <c r="G34" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H34" s="26"/>
@@ -28570,7 +28406,7 @@
       <c r="E35" s="63"/>
       <c r="F35" s="64"/>
       <c r="G35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H35" s="69"/>
@@ -28632,131 +28468,131 @@
         <v>31</v>
       </c>
       <c r="G36" s="76">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>15.5</v>
       </c>
       <c r="H36" s="78">
-        <f t="shared" ref="H36:AL36" si="4">SUM(H3:H35)</f>
+        <f t="shared" ref="H36:AL36" si="5">SUM(H3:H35)</f>
         <v>0</v>
       </c>
       <c r="I36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="O36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="P36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U36" s="79">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
       <c r="V36" s="79">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="W36" s="78">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="X36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y36" s="79">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="Z36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ36" s="79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL36" s="78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM36" s="1"/>
@@ -29193,31 +29029,51 @@
   <mergeCells count="1">
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G35 G3:G4">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="G14:G35 G3:G4">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G35 G3:G4">
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G14:G35 G3:G4">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="24" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G11 G13">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G11 G13">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29288,8 +29144,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="132"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="156"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
@@ -31941,12 +31797,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32019,8 +31875,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -34719,12 +34575,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="92" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34796,8 +34652,8 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="132"/>
+      <c r="AR1" s="155"/>
+      <c r="AS1" s="156"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="3"/>
       <c r="AV1" s="3"/>
@@ -37496,12 +37352,12 @@
     <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="91" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="90" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37572,8 +37428,8 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="132"/>
+      <c r="AQ1" s="155"/>
+      <c r="AR1" s="156"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="3"/>
       <c r="AU1" s="3"/>
@@ -40225,12 +40081,12 @@
     <mergeCell ref="AQ1:AR1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
